--- a/results/meta.reportingSx.interaction.xlsx
+++ b/results/meta.reportingSx.interaction.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">UL</t>
   </si>
   <si>
-    <t xml:space="preserve">covid19_test</t>
+    <t xml:space="preserve">covid19_test_resultPositive</t>
   </si>
   <si>
     <t xml:space="preserve">fixed</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">sexF</t>
   </si>
   <si>
-    <t xml:space="preserve">hospital</t>
+    <t xml:space="preserve">Hospitalization</t>
   </si>
   <si>
     <t xml:space="preserve">obesity</t>
@@ -92,49 +92,49 @@
     <t xml:space="preserve">com_dementia</t>
   </si>
   <si>
-    <t xml:space="preserve">covid19_test:age_range70-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:age_range&lt;60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:age_range&gt;80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:sexF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:obesity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:smokingcurrent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:smokingpast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:com_asthma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:com_copd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:com_hypertension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:com_diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:com_autoimmune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:com_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid19_test:com_dementia</t>
+    <t xml:space="preserve">covid19_test_resultPositive:age_range70-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:age_range&lt;60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:age_range&gt;80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:sexF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:Hospitalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:obesity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:smokingcurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:smokingpast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:com_asthma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:com_copd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:com_hypertension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:com_diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:com_autoimmune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:com_cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19_test_resultPositive:com_dementia</t>
   </si>
 </sst>
 </file>
@@ -497,25 +497,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.871340327800018</v>
+        <v>0.835339273292292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.189714242646865</v>
+        <v>0.186563844404625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00000437108869115449</v>
+        <v>0.00000755228721703892</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>2.39011224147278</v>
+        <v>2.30559614280168</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64790905494423</v>
+        <v>1.59948364845019</v>
       </c>
       <c r="H2" t="n">
-        <v>3.46659696401231</v>
+        <v>3.3234310202875</v>
       </c>
     </row>
     <row r="3">
@@ -523,25 +523,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.95439723177464</v>
+        <v>1.31975978677503</v>
       </c>
       <c r="C3" t="n">
-        <v>1.35144162201843</v>
+        <v>0.726208893681108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.148133073776611</v>
+        <v>0.0691668986609653</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>7.05966240077463</v>
+        <v>3.74252226593295</v>
       </c>
       <c r="G3" t="n">
-        <v>0.499384132589455</v>
+        <v>0.901600744869727</v>
       </c>
       <c r="H3" t="n">
-        <v>99.8005942929781</v>
+        <v>15.5351168360311</v>
       </c>
     </row>
     <row r="4">
@@ -549,25 +549,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0858813244716162</v>
+        <v>-0.08233180045686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0444986861760875</v>
+        <v>0.0444647352793388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0536100116953366</v>
+        <v>0.0640803853832158</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>0.917703133662283</v>
+        <v>0.920966330946078</v>
       </c>
       <c r="G4" t="n">
-        <v>0.841055905039716</v>
+        <v>0.844102724595434</v>
       </c>
       <c r="H4" t="n">
-        <v>1.00133538863128</v>
+        <v>1.00482910198258</v>
       </c>
     </row>
     <row r="5">
@@ -575,25 +575,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.153436399555431</v>
+        <v>-0.08233180045686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206802405853677</v>
+        <v>0.0444647352793388</v>
       </c>
       <c r="D5" t="n">
-        <v>0.458119521286791</v>
+        <v>0.0640803853832158</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.857755316083481</v>
+        <v>0.920966330946078</v>
       </c>
       <c r="G5" t="n">
-        <v>0.571916849060431</v>
+        <v>0.844102724595434</v>
       </c>
       <c r="H5" t="n">
-        <v>1.28645306302513</v>
+        <v>1.00482910198258</v>
       </c>
     </row>
     <row r="6">
@@ -601,25 +601,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0.217070333935893</v>
+        <v>0.208662804320881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.051118754725339</v>
+        <v>0.0509391296129331</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000217239229635914</v>
+        <v>0.0000419775680354477</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>1.24243148416113</v>
+        <v>1.23202949345919</v>
       </c>
       <c r="G6" t="n">
-        <v>1.12398388675295</v>
+        <v>1.1149660375767</v>
       </c>
       <c r="H6" t="n">
-        <v>1.37336131863438</v>
+        <v>1.36138377456981</v>
       </c>
     </row>
     <row r="7">
@@ -627,25 +627,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.217070333935893</v>
+        <v>-0.0303874564320376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.051118754725339</v>
+        <v>0.343589672292237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0000217239229635914</v>
+        <v>0.929526077988056</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>1.24243148416113</v>
+        <v>0.970069601018034</v>
       </c>
       <c r="G7" t="n">
-        <v>1.12398388675295</v>
+        <v>0.494696498112093</v>
       </c>
       <c r="H7" t="n">
-        <v>1.37336131863438</v>
+        <v>1.90224720492373</v>
       </c>
     </row>
     <row r="8">
@@ -653,25 +653,25 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.053578556527236</v>
+        <v>-0.0489822634385418</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0546657280128157</v>
+        <v>0.0546632164996123</v>
       </c>
       <c r="D8" t="n">
-        <v>0.327030651154985</v>
+        <v>0.370213473008231</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.947831479729679</v>
+        <v>0.952198018267403</v>
       </c>
       <c r="G8" t="n">
-        <v>0.851529261668783</v>
+        <v>0.855456359143448</v>
       </c>
       <c r="H8" t="n">
-        <v>1.05502482933581</v>
+        <v>1.05987997669479</v>
       </c>
     </row>
     <row r="9">
@@ -679,25 +679,25 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.053578556527236</v>
+        <v>0.388858933875649</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0546657280128157</v>
+        <v>0.645382403454862</v>
       </c>
       <c r="D9" t="n">
-        <v>0.327030651154985</v>
+        <v>0.546824828942454</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>0.947831479729679</v>
+        <v>1.47529642230486</v>
       </c>
       <c r="G9" t="n">
-        <v>0.851529261668783</v>
+        <v>0.416417326385351</v>
       </c>
       <c r="H9" t="n">
-        <v>1.05502482933581</v>
+        <v>5.22672664117581</v>
       </c>
     </row>
     <row r="10">
@@ -705,25 +705,25 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.293152070124541</v>
+        <v>0.292954714021629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.035790264195917</v>
+        <v>0.035675253303487</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000000000000000259424762791219</v>
+        <v>0.000000000000000218066549417003</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>1.34064664723363</v>
+        <v>1.34038208854295</v>
       </c>
       <c r="G10" t="n">
-        <v>1.24982612458064</v>
+        <v>1.24986119657368</v>
       </c>
       <c r="H10" t="n">
-        <v>1.43806678176283</v>
+        <v>1.4374589340096</v>
       </c>
     </row>
     <row r="11">
@@ -731,25 +731,25 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.293152070124541</v>
+        <v>0.292954714021629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.035790264195917</v>
+        <v>0.035675253303487</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000000000000000259424762791219</v>
+        <v>0.000000000000000218066549417003</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>1.34064664723363</v>
+        <v>1.34038208854295</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24982612458064</v>
+        <v>1.24986119657368</v>
       </c>
       <c r="H11" t="n">
-        <v>1.43806678176283</v>
+        <v>1.4374589340096</v>
       </c>
     </row>
     <row r="12">
@@ -757,25 +757,25 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>1.08998887957323</v>
+        <v>0.843920418301021</v>
       </c>
       <c r="C12" t="n">
-        <v>0.121750795919878</v>
+        <v>0.118753202003982</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000000000000000000347136251384631</v>
+        <v>0.00000000000119016936914542</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>2.97424099754996</v>
+        <v>2.3254659284631</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34283492964589</v>
+        <v>1.84258305116454</v>
       </c>
       <c r="H12" t="n">
-        <v>3.77581424946743</v>
+        <v>2.93489717113425</v>
       </c>
     </row>
     <row r="13">
@@ -783,25 +783,25 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>2.25336657020797</v>
+        <v>0.843920418301021</v>
       </c>
       <c r="C13" t="n">
-        <v>1.4601005836502</v>
+        <v>0.118753202003982</v>
       </c>
       <c r="D13" t="n">
-        <v>0.122759109933594</v>
+        <v>0.00000000000119016936914542</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>9.51973079157919</v>
+        <v>2.3254659284631</v>
       </c>
       <c r="G13" t="n">
-        <v>0.544232906091721</v>
+        <v>1.84258305116454</v>
       </c>
       <c r="H13" t="n">
-        <v>166.519284904959</v>
+        <v>2.93489717113425</v>
       </c>
     </row>
     <row r="14">
@@ -809,25 +809,25 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.172896202128366</v>
+        <v>0.16789075275999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0402607069671042</v>
+        <v>0.0401148880746966</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0000175154213079872</v>
+        <v>0.0000284855001753385</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>1.18874270971687</v>
+        <v>1.18280738514688</v>
       </c>
       <c r="G14" t="n">
-        <v>1.09854509834727</v>
+        <v>1.09337256629412</v>
       </c>
       <c r="H14" t="n">
-        <v>1.28634612455235</v>
+        <v>1.27955772212202</v>
       </c>
     </row>
     <row r="15">
@@ -835,25 +835,25 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.172896202128366</v>
+        <v>0.16789075275999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0402607069671042</v>
+        <v>0.0401148880746966</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0000175154213079872</v>
+        <v>0.0000284855001753385</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>1.18874270971687</v>
+        <v>1.18280738514688</v>
       </c>
       <c r="G15" t="n">
-        <v>1.09854509834727</v>
+        <v>1.09337256629412</v>
       </c>
       <c r="H15" t="n">
-        <v>1.28634612455235</v>
+        <v>1.27955772212202</v>
       </c>
     </row>
     <row r="16">
@@ -861,25 +861,25 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0256693461999873</v>
+        <v>0.0469553222649605</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0780561183447573</v>
+        <v>0.0777132074259145</v>
       </c>
       <c r="D16" t="n">
-        <v>0.742263338600327</v>
+        <v>0.545702106877137</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>1.02600164103846</v>
+        <v>1.04807518240831</v>
       </c>
       <c r="G16" t="n">
-        <v>0.880453789505999</v>
+        <v>0.900000675220667</v>
       </c>
       <c r="H16" t="n">
-        <v>1.195610013791</v>
+        <v>1.22051195985034</v>
       </c>
     </row>
     <row r="17">
@@ -887,25 +887,25 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0459773744940726</v>
+        <v>0.0469553222649605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.221230094690199</v>
+        <v>0.0777132074259145</v>
       </c>
       <c r="D17" t="n">
-        <v>0.835364799579431</v>
+        <v>0.545702106877137</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>0.955063570742742</v>
+        <v>1.04807518240831</v>
       </c>
       <c r="G17" t="n">
-        <v>0.619043092512849</v>
+        <v>0.900000675220667</v>
       </c>
       <c r="H17" t="n">
-        <v>1.47347807477707</v>
+        <v>1.22051195985034</v>
       </c>
     </row>
     <row r="18">
@@ -913,25 +913,25 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.149238997467018</v>
+        <v>0.149920016020388</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0370583744779057</v>
+        <v>0.0369945188860561</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0000564611327095532</v>
+        <v>0.0000506748156684514</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>1.16095042026488</v>
+        <v>1.16174131831818</v>
       </c>
       <c r="G18" t="n">
-        <v>1.07961653528348</v>
+        <v>1.08048724413911</v>
       </c>
       <c r="H18" t="n">
-        <v>1.24841166679548</v>
+        <v>1.24910580667059</v>
       </c>
     </row>
     <row r="19">
@@ -939,25 +939,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.149238997467018</v>
+        <v>0.149920016020388</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0370583744779057</v>
+        <v>0.0369945188860561</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0000564611327095532</v>
+        <v>0.0000506748156684514</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>1.16095042026488</v>
+        <v>1.16174131831818</v>
       </c>
       <c r="G19" t="n">
-        <v>1.07961653528348</v>
+        <v>1.08048724413911</v>
       </c>
       <c r="H19" t="n">
-        <v>1.24841166679548</v>
+        <v>1.24910580667059</v>
       </c>
     </row>
     <row r="20">
@@ -965,25 +965,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.333936401582769</v>
+        <v>0.336598259615054</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0475853220440437</v>
+        <v>0.0475164094477148</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00000000000225655769577032</v>
+        <v>0.00000000000140221932419099</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>1.39645432846526</v>
+        <v>1.4001764433091</v>
       </c>
       <c r="G20" t="n">
-        <v>1.27210229741935</v>
+        <v>1.27566525150334</v>
       </c>
       <c r="H20" t="n">
-        <v>1.53296216463519</v>
+        <v>1.53684053875993</v>
       </c>
     </row>
     <row r="21">
@@ -991,25 +991,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.333936401582769</v>
+        <v>0.336598259615054</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0475853220440437</v>
+        <v>0.0475164094477148</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00000000000225655769577032</v>
+        <v>0.00000000000140221932419099</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>1.39645432846526</v>
+        <v>1.4001764433091</v>
       </c>
       <c r="G21" t="n">
-        <v>1.27210229741935</v>
+        <v>1.27566525150334</v>
       </c>
       <c r="H21" t="n">
-        <v>1.53296216463519</v>
+        <v>1.53684053875993</v>
       </c>
     </row>
     <row r="22">
@@ -1017,25 +1017,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.525041245279276</v>
+        <v>0.521526309844527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0637974556947344</v>
+        <v>0.0637410168745241</v>
       </c>
       <c r="D22" t="n">
-        <v>0.000000000000000187503105629326</v>
+        <v>0.0000000000000002792688752546</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>1.6905285732643</v>
+        <v>1.68459690530066</v>
       </c>
       <c r="G22" t="n">
-        <v>1.49182548802856</v>
+        <v>1.48675547545451</v>
       </c>
       <c r="H22" t="n">
-        <v>1.91569783460377</v>
+        <v>1.90876494500955</v>
       </c>
     </row>
     <row r="23">
@@ -1043,25 +1043,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n">
-        <v>0.525041245279276</v>
+        <v>0.521526309844527</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0637974556947344</v>
+        <v>0.0637410168745241</v>
       </c>
       <c r="D23" t="n">
-        <v>0.000000000000000187503105629326</v>
+        <v>0.0000000000000002792688752546</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>1.6905285732643</v>
+        <v>1.68459690530066</v>
       </c>
       <c r="G23" t="n">
-        <v>1.49182548802856</v>
+        <v>1.48675547545451</v>
       </c>
       <c r="H23" t="n">
-        <v>1.91569783460377</v>
+        <v>1.90876494500955</v>
       </c>
     </row>
     <row r="24">
@@ -1069,25 +1069,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>0.158592171753943</v>
+        <v>0.164961734440926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0382110217831804</v>
+        <v>0.0381278855649073</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0000331851225251774</v>
+        <v>0.0000151471402552956</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>1.17185993163278</v>
+        <v>1.17934798943779</v>
       </c>
       <c r="G24" t="n">
-        <v>1.08730259454539</v>
+        <v>1.09442865618952</v>
       </c>
       <c r="H24" t="n">
-        <v>1.26299312284871</v>
+        <v>1.2708564165649</v>
       </c>
     </row>
     <row r="25">
@@ -1095,25 +1095,25 @@
         <v>21</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0678085850497047</v>
+        <v>0.164961734440926</v>
       </c>
       <c r="C25" t="n">
-        <v>0.205665356495846</v>
+        <v>0.0381278855649073</v>
       </c>
       <c r="D25" t="n">
-        <v>0.741624019223141</v>
+        <v>0.0000151471402552956</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>1.07016044416413</v>
+        <v>1.17934798943779</v>
       </c>
       <c r="G25" t="n">
-        <v>0.715132022450206</v>
+        <v>1.09442865618952</v>
       </c>
       <c r="H25" t="n">
-        <v>1.60144328641541</v>
+        <v>1.2708564165649</v>
       </c>
     </row>
     <row r="26">
@@ -1121,25 +1121,25 @@
         <v>22</v>
       </c>
       <c r="B26" t="n">
-        <v>0.167950464681264</v>
+        <v>0.170325616848903</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0443860169080436</v>
+        <v>0.0443227253774878</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00015441483343691</v>
+        <v>0.00012161344858836</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18287801495705</v>
+        <v>1.18569086939463</v>
       </c>
       <c r="G26" t="n">
-        <v>1.08432261074063</v>
+        <v>1.08703594037222</v>
       </c>
       <c r="H26" t="n">
-        <v>1.29039124003236</v>
+        <v>1.2932993156458</v>
       </c>
     </row>
     <row r="27">
@@ -1147,25 +1147,25 @@
         <v>22</v>
       </c>
       <c r="B27" t="n">
-        <v>0.167950464681264</v>
+        <v>0.170325616848903</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0443860169080436</v>
+        <v>0.0443227253774878</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00015441483343691</v>
+        <v>0.00012161344858836</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>1.18287801495705</v>
+        <v>1.18569086939463</v>
       </c>
       <c r="G27" t="n">
-        <v>1.08432261074063</v>
+        <v>1.08703594037222</v>
       </c>
       <c r="H27" t="n">
-        <v>1.29039124003236</v>
+        <v>1.2932993156458</v>
       </c>
     </row>
     <row r="28">
@@ -1173,25 +1173,25 @@
         <v>23</v>
       </c>
       <c r="B28" t="n">
-        <v>0.551530750975601</v>
+        <v>0.543238068487158</v>
       </c>
       <c r="C28" t="n">
-        <v>0.061009317250944</v>
+        <v>0.0607515606138408</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00000000000000000015651865105952</v>
+        <v>0.000000000000000000382325510012604</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>1.73590822832999</v>
+        <v>1.72157241588813</v>
       </c>
       <c r="G28" t="n">
-        <v>1.5402653186785</v>
+        <v>1.52831710349628</v>
       </c>
       <c r="H28" t="n">
-        <v>1.9564014982621</v>
+        <v>1.93926481380513</v>
       </c>
     </row>
     <row r="29">
@@ -1199,25 +1199,25 @@
         <v>23</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0723532678133756</v>
+        <v>0.0773495000219865</v>
       </c>
       <c r="C29" t="n">
-        <v>0.604966750264148</v>
+        <v>0.561870053267188</v>
       </c>
       <c r="D29" t="n">
-        <v>0.904801009068895</v>
+        <v>0.890505661396736</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>1.07503505227274</v>
+        <v>1.08041961709344</v>
       </c>
       <c r="G29" t="n">
-        <v>0.328453575228932</v>
+        <v>0.359192950474916</v>
       </c>
       <c r="H29" t="n">
-        <v>3.51861100251239</v>
+        <v>3.24980361517942</v>
       </c>
     </row>
     <row r="30">
@@ -1225,25 +1225,25 @@
         <v>24</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0682261155296375</v>
+        <v>0.0777120166399884</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0559217255679156</v>
+        <v>0.0440543553133666</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222453958817729</v>
+        <v>0.077731467596434</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>1.07060736206241</v>
+        <v>1.08081135816109</v>
       </c>
       <c r="G30" t="n">
-        <v>0.959465948906394</v>
+        <v>0.991404223630089</v>
       </c>
       <c r="H30" t="n">
-        <v>1.19462303483379</v>
+        <v>1.1782814356517</v>
       </c>
     </row>
     <row r="31">
@@ -1251,25 +1251,25 @@
         <v>24</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0682261155296375</v>
+        <v>0.0777120166399884</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0559217255679156</v>
+        <v>0.0440543553133666</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222453958817729</v>
+        <v>0.077731467596434</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>1.07060736206241</v>
+        <v>1.08081135816109</v>
       </c>
       <c r="G31" t="n">
-        <v>0.959465948906394</v>
+        <v>0.991404223630089</v>
       </c>
       <c r="H31" t="n">
-        <v>1.19462303483379</v>
+        <v>1.1782814356517</v>
       </c>
     </row>
     <row r="32">
@@ -1277,25 +1277,25 @@
         <v>25</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0237966319023987</v>
+        <v>-0.211043360472524</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0759651407211682</v>
+        <v>0.458905258448152</v>
       </c>
       <c r="D32" t="n">
-        <v>0.75408521804575</v>
+        <v>0.645599212166196</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>1.02408203109744</v>
+        <v>0.809738955456328</v>
       </c>
       <c r="G32" t="n">
-        <v>0.882415444827576</v>
+        <v>0.329400435431397</v>
       </c>
       <c r="H32" t="n">
-        <v>1.18849235081282</v>
+        <v>1.9905170286882</v>
       </c>
     </row>
     <row r="33">
@@ -1303,25 +1303,25 @@
         <v>25</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0237966319023987</v>
+        <v>-0.211043360472524</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0759651407211682</v>
+        <v>0.458905258448152</v>
       </c>
       <c r="D33" t="n">
-        <v>0.75408521804575</v>
+        <v>0.645599212166196</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>1.02408203109744</v>
+        <v>0.809738955456328</v>
       </c>
       <c r="G33" t="n">
-        <v>0.882415444827576</v>
+        <v>0.329400435431397</v>
       </c>
       <c r="H33" t="n">
-        <v>1.18849235081282</v>
+        <v>1.9905170286882</v>
       </c>
     </row>
     <row r="34">
@@ -1329,25 +1329,25 @@
         <v>26</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.129810429698151</v>
+        <v>-0.174863628874302</v>
       </c>
       <c r="C34" t="n">
-        <v>0.200917570262557</v>
+        <v>0.200156946141559</v>
       </c>
       <c r="D34" t="n">
-        <v>0.518222371000895</v>
+        <v>0.382318378710326</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>0.878261907515463</v>
+        <v>0.839571506274186</v>
       </c>
       <c r="G34" t="n">
-        <v>0.592383155531756</v>
+        <v>0.56713152562207</v>
       </c>
       <c r="H34" t="n">
-        <v>1.30210315906147</v>
+        <v>1.24288684776312</v>
       </c>
     </row>
     <row r="35">
@@ -1355,25 +1355,25 @@
         <v>26</v>
       </c>
       <c r="B35" t="n">
-        <v>0.293923413148318</v>
+        <v>-0.174863628874302</v>
       </c>
       <c r="C35" t="n">
-        <v>0.695020365427825</v>
+        <v>0.200156946141559</v>
       </c>
       <c r="D35" t="n">
-        <v>0.672368957040803</v>
+        <v>0.382318378710326</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>1.3416811445972</v>
+        <v>0.839571506274186</v>
       </c>
       <c r="G35" t="n">
-        <v>0.343595058126058</v>
+        <v>0.56713152562207</v>
       </c>
       <c r="H35" t="n">
-        <v>5.23904011770515</v>
+        <v>1.24288684776312</v>
       </c>
     </row>
     <row r="36">
@@ -1381,25 +1381,25 @@
         <v>27</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0251913840962608</v>
+        <v>0.0441689640709389</v>
       </c>
       <c r="C36" t="n">
-        <v>0.180832504181215</v>
+        <v>0.178178121615037</v>
       </c>
       <c r="D36" t="n">
-        <v>0.889206901261048</v>
+        <v>0.804217825894154</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>1.02551136831091</v>
+        <v>1.04515893427855</v>
       </c>
       <c r="G36" t="n">
-        <v>0.719474775723062</v>
+        <v>0.737083764563121</v>
       </c>
       <c r="H36" t="n">
-        <v>1.4617240270557</v>
+        <v>1.4819987231027</v>
       </c>
     </row>
     <row r="37">
@@ -1407,25 +1407,25 @@
         <v>27</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0251913840962608</v>
+        <v>0.0441689640709389</v>
       </c>
       <c r="C37" t="n">
-        <v>0.180832504181215</v>
+        <v>0.178178121615037</v>
       </c>
       <c r="D37" t="n">
-        <v>0.889206901261048</v>
+        <v>0.804217825894154</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>1.02551136831091</v>
+        <v>1.04515893427855</v>
       </c>
       <c r="G37" t="n">
-        <v>0.719474775723062</v>
+        <v>0.737083764563121</v>
       </c>
       <c r="H37" t="n">
-        <v>1.4617240270557</v>
+        <v>1.4819987231027</v>
       </c>
     </row>
     <row r="38">
@@ -1433,25 +1433,25 @@
         <v>28</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.24377313410172</v>
+        <v>-0.333970881933552</v>
       </c>
       <c r="C38" t="n">
-        <v>0.262482858561337</v>
+        <v>0.261998609850226</v>
       </c>
       <c r="D38" t="n">
-        <v>0.353034107075557</v>
+        <v>0.202413752166617</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>0.783665401052649</v>
+        <v>0.71607463263238</v>
       </c>
       <c r="G38" t="n">
-        <v>0.46849489050249</v>
+        <v>0.428493923786565</v>
       </c>
       <c r="H38" t="n">
-        <v>1.31086053072706</v>
+        <v>1.19666312877521</v>
       </c>
     </row>
     <row r="39">
@@ -1459,25 +1459,25 @@
         <v>28</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.376582671494555</v>
+        <v>-1.1643267851041</v>
       </c>
       <c r="C39" t="n">
-        <v>0.463146629974989</v>
+        <v>1.1719491248071</v>
       </c>
       <c r="D39" t="n">
-        <v>0.416163020576049</v>
+        <v>0.320468291590849</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>0.686202385964939</v>
+        <v>0.312132723715489</v>
       </c>
       <c r="G39" t="n">
-        <v>0.276835064319517</v>
+        <v>0.0313887772793831</v>
       </c>
       <c r="H39" t="n">
-        <v>1.70091789369754</v>
+        <v>3.10387487689883</v>
       </c>
     </row>
     <row r="40">
@@ -1485,25 +1485,25 @@
         <v>29</v>
       </c>
       <c r="B40" t="n">
-        <v>0.324714646692126</v>
+        <v>0.309918293911344</v>
       </c>
       <c r="C40" t="n">
-        <v>0.146289518574786</v>
+        <v>0.143304247760492</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0264410880335635</v>
+        <v>0.0305673776651489</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>1.38363576460076</v>
+        <v>1.36331371854984</v>
       </c>
       <c r="G40" t="n">
-        <v>1.03872339980448</v>
+        <v>1.02947311185311</v>
       </c>
       <c r="H40" t="n">
-        <v>1.84307769464198</v>
+        <v>1.80541315143292</v>
       </c>
     </row>
     <row r="41">
@@ -1511,25 +1511,25 @@
         <v>29</v>
       </c>
       <c r="B41" t="n">
-        <v>0.324714646692126</v>
+        <v>0.309918293911344</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146289518574786</v>
+        <v>0.143304247760492</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0264410880335635</v>
+        <v>0.0305673776651489</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>1.38363576460076</v>
+        <v>1.36331371854984</v>
       </c>
       <c r="G41" t="n">
-        <v>1.03872339980448</v>
+        <v>1.02947311185311</v>
       </c>
       <c r="H41" t="n">
-        <v>1.84307769464198</v>
+        <v>1.80541315143292</v>
       </c>
     </row>
     <row r="42">
@@ -1537,25 +1537,25 @@
         <v>30</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.47082351278997</v>
+        <v>0.0636502516166464</v>
       </c>
       <c r="C42" t="n">
-        <v>0.399692364754724</v>
+        <v>0.379443181165293</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000233335552409803</v>
+        <v>0.866782741730569</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>0.229736216552199</v>
+        <v>1.06571959986524</v>
       </c>
       <c r="G42" t="n">
-        <v>0.104956830379868</v>
+        <v>0.506594338152471</v>
       </c>
       <c r="H42" t="n">
-        <v>0.502861309785157</v>
+        <v>2.24194820194594</v>
       </c>
     </row>
     <row r="43">
@@ -1563,25 +1563,25 @@
         <v>30</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.00015856569746</v>
+        <v>0.187405059739969</v>
       </c>
       <c r="C43" t="n">
-        <v>1.88640057912015</v>
+        <v>0.621549131002802</v>
       </c>
       <c r="D43" t="n">
-        <v>0.595977321461214</v>
+        <v>0.763023440709923</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>0.367821112735838</v>
+        <v>1.20611573504354</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00911862949199881</v>
+        <v>0.356718311653667</v>
       </c>
       <c r="H43" t="n">
-        <v>14.8369194178734</v>
+        <v>4.07805015552997</v>
       </c>
     </row>
     <row r="44">
@@ -1589,25 +1589,25 @@
         <v>31</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0417102611725871</v>
+        <v>0.0265352385061575</v>
       </c>
       <c r="C44" t="n">
-        <v>0.163523364511235</v>
+        <v>0.161032606939377</v>
       </c>
       <c r="D44" t="n">
-        <v>0.798667350262955</v>
+        <v>0.86911575083598</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>0.959147642630119</v>
+        <v>1.02689043270895</v>
       </c>
       <c r="G44" t="n">
-        <v>0.696136048167034</v>
+        <v>0.748950136260825</v>
       </c>
       <c r="H44" t="n">
-        <v>1.32152932287479</v>
+        <v>1.40797619191827</v>
       </c>
     </row>
     <row r="45">
@@ -1615,25 +1615,25 @@
         <v>31</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0417102611725871</v>
+        <v>0.158150466099364</v>
       </c>
       <c r="C45" t="n">
-        <v>0.163523364511235</v>
+        <v>0.321339568854212</v>
       </c>
       <c r="D45" t="n">
-        <v>0.798667350262955</v>
+        <v>0.622606274596361</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>0.959147642630119</v>
+        <v>1.17134242877499</v>
       </c>
       <c r="G45" t="n">
-        <v>0.696136048167034</v>
+        <v>0.623963431520477</v>
       </c>
       <c r="H45" t="n">
-        <v>1.32152932287479</v>
+        <v>2.19891585970845</v>
       </c>
     </row>
     <row r="46">
@@ -1641,25 +1641,25 @@
         <v>32</v>
       </c>
       <c r="B46" t="n">
-        <v>0.251360564723426</v>
+        <v>-0.0494445698174214</v>
       </c>
       <c r="C46" t="n">
-        <v>0.282187711679943</v>
+        <v>0.272059546720935</v>
       </c>
       <c r="D46" t="n">
-        <v>0.373059766462705</v>
+        <v>0.855785423758982</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>1.28577360536591</v>
+        <v>0.951757912789225</v>
       </c>
       <c r="G46" t="n">
-        <v>0.739547188839511</v>
+        <v>0.558404603743996</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2354405360527</v>
+        <v>1.62219852501823</v>
       </c>
     </row>
     <row r="47">
@@ -1667,25 +1667,25 @@
         <v>32</v>
       </c>
       <c r="B47" t="n">
-        <v>0.251360564723426</v>
+        <v>-0.458635956032128</v>
       </c>
       <c r="C47" t="n">
-        <v>0.282187711679943</v>
+        <v>0.865034635041575</v>
       </c>
       <c r="D47" t="n">
-        <v>0.373059766462705</v>
+        <v>0.595977604747325</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>1.28577360536591</v>
+        <v>0.632145331710925</v>
       </c>
       <c r="G47" t="n">
-        <v>0.739547188839511</v>
+        <v>0.116010719101984</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2354405360527</v>
+        <v>3.44457584176014</v>
       </c>
     </row>
     <row r="48">
@@ -1693,25 +1693,25 @@
         <v>33</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0126817775584856</v>
+        <v>0.00352552178081783</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154824581508455</v>
+        <v>0.153438056728137</v>
       </c>
       <c r="D48" t="n">
-        <v>0.93471778878891</v>
+        <v>0.98166874654688</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>0.987398297327811</v>
+        <v>1.00353174374247</v>
       </c>
       <c r="G48" t="n">
-        <v>0.728962942764123</v>
+        <v>0.74288981458412</v>
       </c>
       <c r="H48" t="n">
-        <v>1.33745536346329</v>
+        <v>1.35561955612836</v>
       </c>
     </row>
     <row r="49">
@@ -1719,25 +1719,25 @@
         <v>33</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0126817775584856</v>
+        <v>0.0318274416556013</v>
       </c>
       <c r="C49" t="n">
-        <v>0.154824581508455</v>
+        <v>0.198545709347062</v>
       </c>
       <c r="D49" t="n">
-        <v>0.93471778878891</v>
+        <v>0.872642519520098</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>0.987398297327811</v>
+        <v>1.03233935116527</v>
       </c>
       <c r="G49" t="n">
-        <v>0.728962942764123</v>
+        <v>0.699552105546006</v>
       </c>
       <c r="H49" t="n">
-        <v>1.33745536346329</v>
+        <v>1.5234383936741</v>
       </c>
     </row>
     <row r="50">
@@ -1745,25 +1745,25 @@
         <v>34</v>
       </c>
       <c r="B50" t="n">
-        <v>0.356044171530781</v>
+        <v>0.314228834050009</v>
       </c>
       <c r="C50" t="n">
-        <v>0.186034459042809</v>
+        <v>0.184069463827051</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0556378667348004</v>
+        <v>0.0877995778630045</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="n">
-        <v>1.42767060926735</v>
+        <v>1.36920302097351</v>
       </c>
       <c r="G50" t="n">
-        <v>0.991460006617345</v>
+        <v>0.954525724228276</v>
       </c>
       <c r="H50" t="n">
-        <v>2.0557998859882</v>
+        <v>1.96402974279051</v>
       </c>
     </row>
     <row r="51">
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="B51" t="n">
-        <v>0.356044171530781</v>
+        <v>0.314228834050009</v>
       </c>
       <c r="C51" t="n">
-        <v>0.186034459042809</v>
+        <v>0.184069463827051</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0556378667348004</v>
+        <v>0.0877995778630045</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>1.42767060926735</v>
+        <v>1.36920302097351</v>
       </c>
       <c r="G51" t="n">
-        <v>0.991460006617345</v>
+        <v>0.954525724228276</v>
       </c>
       <c r="H51" t="n">
-        <v>2.0557998859882</v>
+        <v>1.96402974279051</v>
       </c>
     </row>
     <row r="52">
@@ -1797,25 +1797,25 @@
         <v>35</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.522262110527484</v>
+        <v>-0.486271672025567</v>
       </c>
       <c r="C52" t="n">
-        <v>0.25678908651531</v>
+        <v>0.254474441896341</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0419700101992959</v>
+        <v>0.0560192206381355</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>0.593177196757129</v>
+        <v>0.61491472948926</v>
       </c>
       <c r="G52" t="n">
-        <v>0.358595785072886</v>
+        <v>0.373427122799244</v>
       </c>
       <c r="H52" t="n">
-        <v>0.981213950077882</v>
+        <v>1.01256738318424</v>
       </c>
     </row>
     <row r="53">
@@ -1823,25 +1823,25 @@
         <v>35</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.643437760502762</v>
+        <v>-0.486271672025567</v>
       </c>
       <c r="C53" t="n">
-        <v>0.431269647288736</v>
+        <v>0.254474441896341</v>
       </c>
       <c r="D53" t="n">
-        <v>0.135709207777184</v>
+        <v>0.0560192206381355</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>0.525482831229794</v>
+        <v>0.61491472948926</v>
       </c>
       <c r="G53" t="n">
-        <v>0.225663407595049</v>
+        <v>0.373427122799244</v>
       </c>
       <c r="H53" t="n">
-        <v>1.22364635392193</v>
+        <v>1.01256738318424</v>
       </c>
     </row>
     <row r="54">
@@ -1849,25 +1849,25 @@
         <v>36</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.159355546364829</v>
+        <v>-0.245971769068883</v>
       </c>
       <c r="C54" t="n">
-        <v>0.157930743881569</v>
+        <v>0.156119368745731</v>
       </c>
       <c r="D54" t="n">
-        <v>0.312964231256224</v>
+        <v>0.115132652534004</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>0.852693133123106</v>
+        <v>0.781944299629541</v>
       </c>
       <c r="G54" t="n">
-        <v>0.62569383034904</v>
+        <v>0.5758200334119</v>
       </c>
       <c r="H54" t="n">
-        <v>1.16204690538454</v>
+        <v>1.06185414234408</v>
       </c>
     </row>
     <row r="55">
@@ -1875,25 +1875,25 @@
         <v>36</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.159355546364829</v>
+        <v>-0.389027682123254</v>
       </c>
       <c r="C55" t="n">
-        <v>0.157930743881569</v>
+        <v>0.332369919174341</v>
       </c>
       <c r="D55" t="n">
-        <v>0.312964231256224</v>
+        <v>0.241813498250064</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>0.852693133123106</v>
+        <v>0.677715509150047</v>
       </c>
       <c r="G55" t="n">
-        <v>0.62569383034904</v>
+        <v>0.353291864077848</v>
       </c>
       <c r="H55" t="n">
-        <v>1.16204690538454</v>
+        <v>1.3000534629954</v>
       </c>
     </row>
     <row r="56">
@@ -1901,25 +1901,25 @@
         <v>37</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0271276808788594</v>
+        <v>-0.0554173719231684</v>
       </c>
       <c r="C56" t="n">
-        <v>0.182146348823565</v>
+        <v>0.179971458501024</v>
       </c>
       <c r="D56" t="n">
-        <v>0.881606160380987</v>
+        <v>0.758140837383417</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>0.973236969839299</v>
+        <v>0.9460901940541</v>
       </c>
       <c r="G56" t="n">
-        <v>0.681044272121351</v>
+        <v>0.664875849105314</v>
       </c>
       <c r="H56" t="n">
-        <v>1.39079093420994</v>
+        <v>1.34624630521592</v>
       </c>
     </row>
     <row r="57">
@@ -1927,25 +1927,25 @@
         <v>37</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.0271276808788594</v>
+        <v>-0.0554173719231684</v>
       </c>
       <c r="C57" t="n">
-        <v>0.182146348823565</v>
+        <v>0.179971458501024</v>
       </c>
       <c r="D57" t="n">
-        <v>0.881606160380987</v>
+        <v>0.758140837383417</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>0.973236969839299</v>
+        <v>0.9460901940541</v>
       </c>
       <c r="G57" t="n">
-        <v>0.681044272121351</v>
+        <v>0.664875849105314</v>
       </c>
       <c r="H57" t="n">
-        <v>1.39079093420994</v>
+        <v>1.34624630521592</v>
       </c>
     </row>
     <row r="58">
@@ -1953,25 +1953,25 @@
         <v>38</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313151099659777</v>
+        <v>0.320954773819212</v>
       </c>
       <c r="C58" t="n">
-        <v>0.263174230540095</v>
+        <v>0.257121754989607</v>
       </c>
       <c r="D58" t="n">
-        <v>0.234085574900617</v>
+        <v>0.211935897524512</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>1.36772817867748</v>
+        <v>1.37844323776092</v>
       </c>
       <c r="G58" t="n">
-        <v>0.816555076998317</v>
+        <v>0.832772648031957</v>
       </c>
       <c r="H58" t="n">
-        <v>2.29094206066921</v>
+        <v>2.28166206493358</v>
       </c>
     </row>
     <row r="59">
@@ -1979,25 +1979,25 @@
         <v>38</v>
       </c>
       <c r="B59" t="n">
-        <v>0.313151099659777</v>
+        <v>0.320954773819212</v>
       </c>
       <c r="C59" t="n">
-        <v>0.263174230540095</v>
+        <v>0.257121754989607</v>
       </c>
       <c r="D59" t="n">
-        <v>0.234085574900617</v>
+        <v>0.211935897524512</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>1.36772817867748</v>
+        <v>1.37844323776092</v>
       </c>
       <c r="G59" t="n">
-        <v>0.816555076998317</v>
+        <v>0.832772648031957</v>
       </c>
       <c r="H59" t="n">
-        <v>2.29094206066921</v>
+        <v>2.28166206493358</v>
       </c>
     </row>
     <row r="60">
@@ -2005,25 +2005,25 @@
         <v>39</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0360009008582379</v>
+        <v>-0.128034420557289</v>
       </c>
       <c r="C60" t="n">
-        <v>0.223978538920994</v>
+        <v>0.188639908159485</v>
       </c>
       <c r="D60" t="n">
-        <v>0.872303140212736</v>
+        <v>0.497312798295898</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>0.964639424479359</v>
+        <v>0.879823094622209</v>
       </c>
       <c r="G60" t="n">
-        <v>0.621890796208685</v>
+        <v>0.607889688663117</v>
       </c>
       <c r="H60" t="n">
-        <v>1.49629038559949</v>
+        <v>1.27340320500088</v>
       </c>
     </row>
     <row r="61">
@@ -2031,25 +2031,25 @@
         <v>39</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.0360009008582379</v>
+        <v>-0.128034420557289</v>
       </c>
       <c r="C61" t="n">
-        <v>0.223978538920994</v>
+        <v>0.188639908159485</v>
       </c>
       <c r="D61" t="n">
-        <v>0.872303140212736</v>
+        <v>0.497312798295898</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>0.964639424479359</v>
+        <v>0.879823094622209</v>
       </c>
       <c r="G61" t="n">
-        <v>0.621890796208685</v>
+        <v>0.607889688663117</v>
       </c>
       <c r="H61" t="n">
-        <v>1.49629038559949</v>
+        <v>1.27340320500088</v>
       </c>
     </row>
     <row r="62">
@@ -2057,25 +2057,25 @@
         <v>40</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.152851319129461</v>
+        <v>-0.608740814775138</v>
       </c>
       <c r="C62" t="n">
-        <v>0.348874401912639</v>
+        <v>0.989674220213574</v>
       </c>
       <c r="D62" t="n">
-        <v>0.66129417297951</v>
+        <v>0.538493885383356</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>0.858257318770846</v>
+        <v>0.544035479395898</v>
       </c>
       <c r="G62" t="n">
-        <v>0.433166723655167</v>
+        <v>0.0782014849233508</v>
       </c>
       <c r="H62" t="n">
-        <v>1.70051295493814</v>
+        <v>3.78476960036788</v>
       </c>
     </row>
     <row r="63">
@@ -2083,25 +2083,25 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.152851319129461</v>
+        <v>-0.608740814775138</v>
       </c>
       <c r="C63" t="n">
-        <v>0.348874401912639</v>
+        <v>0.989674220213574</v>
       </c>
       <c r="D63" t="n">
-        <v>0.66129417297951</v>
+        <v>0.538493885383356</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>0.858257318770846</v>
+        <v>0.544035479395898</v>
       </c>
       <c r="G63" t="n">
-        <v>0.433166723655167</v>
+        <v>0.0782014849233508</v>
       </c>
       <c r="H63" t="n">
-        <v>1.70051295493814</v>
+        <v>3.78476960036788</v>
       </c>
     </row>
   </sheetData>
